--- a/uploads/sample.xlsx
+++ b/uploads/sample.xlsx
@@ -91,7 +91,7 @@
     <t>SD</t>
   </si>
   <si>
-    <t>ST 7669 0924 0000 1215</t>
+    <t>DC 0000 0325 0000 0001</t>
   </si>
   <si>
     <t>Student - Plan C</t>
@@ -145,7 +145,7 @@
     <t>MARILYN BUHAT</t>
   </si>
   <si>
-    <t>ST 7669 0924 0000 0001</t>
+    <t>DC 0000 0325 0000 0002</t>
   </si>
   <si>
     <t>Student - Plan B</t>
@@ -172,7 +172,7 @@
     <t>REL</t>
   </si>
   <si>
-    <t>ST 7669 0924 0000 0002</t>
+    <t>DC 0000 0325 0000 0003</t>
   </si>
   <si>
     <t>Tallada</t>
@@ -181,19 +181,19 @@
     <t>Mike</t>
   </si>
   <si>
-    <t>ST 7669 0924 0000 0003</t>
+    <t>DC 0000 0325 0000 0004</t>
   </si>
   <si>
     <t>Angeles</t>
   </si>
   <si>
-    <t>ST 7669 0924 0000 0004</t>
-  </si>
-  <si>
-    <t>ST 7669 0924 0000 0005</t>
-  </si>
-  <si>
-    <t>ST 7669 0924 0000 0006</t>
+    <t>DC 0000 0325 0000 0005</t>
+  </si>
+  <si>
+    <t>DC 0000 0325 0000 0006</t>
+  </si>
+  <si>
+    <t>DC 0000 0325 0000 0007</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -247,12 +247,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFff0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -346,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,32 +393,29 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -737,32 +728,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="25" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="61.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="24" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="24" width="35.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="24" width="31.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="26" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="27" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="27" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="27" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="27" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="27" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="27" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="27" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="27" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="23" width="61.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="23" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="23" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="23" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="25" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="26" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="26" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="26" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="26" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="26" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="26" width="6.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="26" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="26" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="26" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="26" width="9.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="64.5">
@@ -931,43 +922,43 @@
       <c r="C3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>45712</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>36892</v>
       </c>
       <c r="J3" s="17">
         <v>21</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="17">
         <v>324234234</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -989,43 +980,43 @@
       <c r="C4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>45713</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>36893</v>
       </c>
       <c r="J4" s="17">
         <v>22</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L4" s="17">
         <v>324234235</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1047,43 +1038,43 @@
       <c r="C5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>45714</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>36894</v>
       </c>
       <c r="J5" s="17">
         <v>23</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L5" s="17">
         <v>324234236</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -1105,43 +1096,43 @@
       <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>45715</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>36895</v>
       </c>
       <c r="J6" s="17">
         <v>24</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="17">
         <v>324234237</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -1163,43 +1154,43 @@
       <c r="C7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>45716</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>36896</v>
       </c>
       <c r="J7" s="17">
         <v>25</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L7" s="17">
         <v>324234238</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -1221,43 +1212,43 @@
       <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>45717</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>36897</v>
       </c>
       <c r="J8" s="17">
         <v>26</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="17">
         <v>324234239</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
